--- a/team_specific_matrix/Lamar University_B.xlsx
+++ b/team_specific_matrix/Lamar University_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1941391941391941</v>
+        <v>0.2005571030640668</v>
       </c>
       <c r="C2">
-        <v>0.5641025641025641</v>
+        <v>0.5543175487465181</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01465201465201465</v>
+        <v>0.01949860724233983</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1465201465201465</v>
+        <v>0.1476323119777159</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08058608058608059</v>
+        <v>0.07799442896935933</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01298701298701299</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="C3">
-        <v>0.01298701298701299</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01948051948051948</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7532467532467533</v>
+        <v>0.7537688442211056</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2012987012987013</v>
+        <v>0.2060301507537688</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07894736842105263</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5263157894736842</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3947368421052632</v>
+        <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05555555555555555</v>
+        <v>0.05365853658536585</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02469135802469136</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05555555555555555</v>
+        <v>0.05365853658536585</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2716049382716049</v>
+        <v>0.2536585365853659</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04320987654320987</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1172839506172839</v>
+        <v>0.1170731707317073</v>
       </c>
       <c r="R6">
-        <v>0.09876543209876543</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3609756097560975</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08609271523178808</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02649006622516556</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01324503311258278</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1258278145695364</v>
+        <v>0.1391752577319588</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02649006622516556</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1456953642384106</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="R7">
-        <v>0.1258278145695364</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="S7">
-        <v>0.4503311258278146</v>
+        <v>0.4278350515463917</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1002570694087404</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02313624678663239</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="F8">
-        <v>0.07455012853470437</v>
+        <v>0.08008213552361396</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1233933161953727</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007712082262210797</v>
+        <v>0.01232032854209446</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1182519280205656</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="R8">
-        <v>0.1079691516709512</v>
+        <v>0.09856262833675565</v>
       </c>
       <c r="S8">
-        <v>0.4447300771208226</v>
+        <v>0.4394250513347023</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.15625</v>
+        <v>0.1608040201005025</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="E9">
-        <v>0.00625</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="F9">
-        <v>0.08125</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.10625</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01875</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="R9">
-        <v>0.1125</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="S9">
-        <v>0.41875</v>
+        <v>0.4371859296482412</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1286727456940223</v>
+        <v>0.1299756295694557</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02228976697061803</v>
+        <v>0.02193338748984565</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06180344478216818</v>
+        <v>0.06173842404549147</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1236068895643364</v>
+        <v>0.1226645004061738</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01317122593718338</v>
+        <v>0.01380991064175467</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1854103343465046</v>
+        <v>0.1852152721364744</v>
       </c>
       <c r="R10">
-        <v>0.0911854103343465</v>
+        <v>0.0901705930138099</v>
       </c>
       <c r="S10">
-        <v>0.3738601823708207</v>
+        <v>0.3744922826969943</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1186440677966102</v>
+        <v>0.1182432432432432</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1016949152542373</v>
+        <v>0.09797297297297297</v>
       </c>
       <c r="K11">
-        <v>0.1652542372881356</v>
+        <v>0.1554054054054054</v>
       </c>
       <c r="L11">
-        <v>0.6016949152542372</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01271186440677966</v>
+        <v>0.01351351351351351</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6824324324324325</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2027027027027027</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="K12">
-        <v>0.02027027027027027</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="L12">
-        <v>0.06081081081081081</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03378378378378379</v>
+        <v>0.03157894736842105</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7647058823529411</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2352941176470588</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03125</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1822916666666667</v>
+        <v>0.1681034482758621</v>
       </c>
       <c r="I15">
-        <v>0.07291666666666667</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="K15">
-        <v>0.078125</v>
+        <v>0.07327586206896551</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005208333333333333</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05208333333333334</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2447916666666667</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01149425287356322</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1896551724137931</v>
+        <v>0.1921397379912664</v>
       </c>
       <c r="I16">
-        <v>0.05747126436781609</v>
+        <v>0.0611353711790393</v>
       </c>
       <c r="J16">
-        <v>0.4367816091954023</v>
+        <v>0.445414847161572</v>
       </c>
       <c r="K16">
-        <v>0.103448275862069</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01724137931034483</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.09195402298850575</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09195402298850575</v>
+        <v>0.08733624454148471</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01773049645390071</v>
+        <v>0.0141643059490085</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1560283687943262</v>
+        <v>0.1784702549575071</v>
       </c>
       <c r="I17">
-        <v>0.09929078014184398</v>
+        <v>0.1048158640226629</v>
       </c>
       <c r="J17">
-        <v>0.4042553191489361</v>
+        <v>0.3881019830028329</v>
       </c>
       <c r="K17">
-        <v>0.1028368794326241</v>
+        <v>0.1048158640226629</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01418439716312057</v>
+        <v>0.0169971671388102</v>
       </c>
       <c r="N17">
-        <v>0.003546099290780142</v>
+        <v>0.0028328611898017</v>
       </c>
       <c r="O17">
-        <v>0.04964539007092199</v>
+        <v>0.04815864022662889</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1524822695035461</v>
+        <v>0.141643059490085</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01081081081081081</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1891891891891892</v>
+        <v>0.1727272727272727</v>
       </c>
       <c r="I18">
-        <v>0.0918918918918919</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="J18">
-        <v>0.372972972972973</v>
+        <v>0.3727272727272727</v>
       </c>
       <c r="K18">
-        <v>0.0972972972972973</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005405405405405406</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1081081081081081</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1243243243243243</v>
+        <v>0.1454545454545454</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01413760603204524</v>
+        <v>0.01410541945063103</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2280867106503299</v>
+        <v>0.2249443207126949</v>
       </c>
       <c r="I19">
-        <v>0.08765315739868049</v>
+        <v>0.08537490720118783</v>
       </c>
       <c r="J19">
-        <v>0.3345900094250707</v>
+        <v>0.3377876763177431</v>
       </c>
       <c r="K19">
-        <v>0.1065032987747408</v>
+        <v>0.1106161841128434</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02544769085768143</v>
+        <v>0.0244988864142539</v>
       </c>
       <c r="N19">
-        <v>0.001885014137606032</v>
+        <v>0.001484780994803266</v>
       </c>
       <c r="O19">
-        <v>0.07257304429783223</v>
+        <v>0.066815144766147</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1291234684260132</v>
+        <v>0.1343726800296956</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Lamar University_B.xlsx
+++ b/team_specific_matrix/Lamar University_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2005571030640668</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="C2">
-        <v>0.5543175487465181</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01949860724233983</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1476323119777159</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07799442896935933</v>
+        <v>0.07908163265306123</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01005025125628141</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="C3">
-        <v>0.01507537688442211</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01507537688442211</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7537688442211056</v>
+        <v>0.7465437788018433</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2060301507537688</v>
+        <v>0.2027649769585254</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3541666666666667</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05365853658536585</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02439024390243903</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05365853658536585</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2536585365853659</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03902439024390244</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1170731707317073</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="R6">
-        <v>0.0975609756097561</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="S6">
-        <v>0.3609756097560975</v>
+        <v>0.3596491228070176</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1134020618556701</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03608247422680412</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02061855670103093</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1391752577319588</v>
+        <v>0.1534883720930233</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03092783505154639</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1288659793814433</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="R7">
-        <v>0.1030927835051546</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="S7">
-        <v>0.4278350515463917</v>
+        <v>0.413953488372093</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.108829568788501</v>
+        <v>0.1100746268656716</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01848049281314168</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="E8">
-        <v>0.002053388090349076</v>
+        <v>0.001865671641791045</v>
       </c>
       <c r="F8">
-        <v>0.08008213552361396</v>
+        <v>0.08022388059701492</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1129363449691992</v>
+        <v>0.1138059701492537</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01232032854209446</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1273100616016427</v>
+        <v>0.1399253731343283</v>
       </c>
       <c r="R8">
-        <v>0.09856262833675565</v>
+        <v>0.09328358208955224</v>
       </c>
       <c r="S8">
-        <v>0.4394250513347023</v>
+        <v>0.4309701492537313</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1608040201005025</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005025125628140704</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="E9">
-        <v>0.005025125628140704</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="F9">
-        <v>0.07035175879396985</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1005025125628141</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01507537688442211</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1005025125628141</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="R9">
-        <v>0.1055276381909548</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="S9">
-        <v>0.4371859296482412</v>
+        <v>0.4392523364485981</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1299756295694557</v>
+        <v>0.1266280752532561</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02193338748984565</v>
+        <v>0.02170767004341534</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06173842404549147</v>
+        <v>0.06222865412445731</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1226645004061738</v>
+        <v>0.1201157742402316</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01380991064175467</v>
+        <v>0.01447178002894356</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1852152721364744</v>
+        <v>0.1881331403762663</v>
       </c>
       <c r="R10">
-        <v>0.0901705930138099</v>
+        <v>0.08827785817655572</v>
       </c>
       <c r="S10">
-        <v>0.3744922826969943</v>
+        <v>0.3784370477568741</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1182432432432432</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09797297297297297</v>
+        <v>0.1014925373134328</v>
       </c>
       <c r="K11">
-        <v>0.1554054054054054</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="L11">
-        <v>0.6148648648648649</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01351351351351351</v>
+        <v>0.01492537313432836</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7105263157894737</v>
+        <v>0.7129186602870813</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1842105263157895</v>
+        <v>0.1913875598086124</v>
       </c>
       <c r="K12">
-        <v>0.02105263157894737</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="L12">
-        <v>0.05263157894736842</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03157894736842105</v>
+        <v>0.02870813397129187</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2619047619047619</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02380952380952381</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03017241379310345</v>
+        <v>0.03422053231939164</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1681034482758621</v>
+        <v>0.1673003802281369</v>
       </c>
       <c r="I15">
-        <v>0.0603448275862069</v>
+        <v>0.0532319391634981</v>
       </c>
       <c r="J15">
-        <v>0.3275862068965517</v>
+        <v>0.3155893536121673</v>
       </c>
       <c r="K15">
-        <v>0.07327586206896551</v>
+        <v>0.07224334600760456</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004310344827586207</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0603448275862069</v>
+        <v>0.06463878326996197</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2758620689655172</v>
+        <v>0.285171102661597</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01746724890829694</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1921397379912664</v>
+        <v>0.1902834008097166</v>
       </c>
       <c r="I16">
-        <v>0.0611353711790393</v>
+        <v>0.06072874493927125</v>
       </c>
       <c r="J16">
-        <v>0.445414847161572</v>
+        <v>0.4534412955465587</v>
       </c>
       <c r="K16">
-        <v>0.09606986899563319</v>
+        <v>0.09716599190283401</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01310043668122271</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08733624454148471</v>
+        <v>0.08502024291497975</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08733624454148471</v>
+        <v>0.08097165991902834</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0141643059490085</v>
+        <v>0.01213592233009709</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1784702549575071</v>
+        <v>0.1699029126213592</v>
       </c>
       <c r="I17">
-        <v>0.1048158640226629</v>
+        <v>0.1043689320388349</v>
       </c>
       <c r="J17">
-        <v>0.3881019830028329</v>
+        <v>0.4004854368932039</v>
       </c>
       <c r="K17">
-        <v>0.1048158640226629</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0169971671388102</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="N17">
-        <v>0.0028328611898017</v>
+        <v>0.002427184466019417</v>
       </c>
       <c r="O17">
-        <v>0.04815864022662889</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.141643059490085</v>
+        <v>0.1359223300970874</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00909090909090909</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1727272727272727</v>
+        <v>0.167381974248927</v>
       </c>
       <c r="I18">
-        <v>0.09545454545454546</v>
+        <v>0.09012875536480687</v>
       </c>
       <c r="J18">
-        <v>0.3727272727272727</v>
+        <v>0.3948497854077253</v>
       </c>
       <c r="K18">
-        <v>0.09545454545454546</v>
+        <v>0.09012875536480687</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.004545454545454545</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1045454545454545</v>
+        <v>0.1072961373390558</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1454545454545454</v>
+        <v>0.1373390557939914</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01410541945063103</v>
+        <v>0.01468624833110814</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2249443207126949</v>
+        <v>0.2242990654205607</v>
       </c>
       <c r="I19">
-        <v>0.08537490720118783</v>
+        <v>0.08277703604806408</v>
       </c>
       <c r="J19">
-        <v>0.3377876763177431</v>
+        <v>0.335781041388518</v>
       </c>
       <c r="K19">
-        <v>0.1106161841128434</v>
+        <v>0.1108144192256342</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0244988864142539</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="N19">
-        <v>0.001484780994803266</v>
+        <v>0.001335113484646195</v>
       </c>
       <c r="O19">
-        <v>0.066815144766147</v>
+        <v>0.06809078771695594</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1343726800296956</v>
+        <v>0.1388518024032043</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Lamar University_B.xlsx
+++ b/team_specific_matrix/Lamar University_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2040816326530612</v>
+        <v>0.2082324455205811</v>
       </c>
       <c r="C2">
-        <v>0.5535714285714286</v>
+        <v>0.549636803874092</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02040816326530612</v>
+        <v>0.01937046004842615</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07908163265306123</v>
+        <v>0.07990314769975787</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009216589861751152</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="C3">
-        <v>0.01382488479262673</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02764976958525346</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7465437788018433</v>
+        <v>0.7533039647577092</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2027649769585254</v>
+        <v>0.1982378854625551</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0576923076923077</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P4">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3269230769230769</v>
+        <v>0.3272727272727273</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04824561403508772</v>
+        <v>0.05284552845528456</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02192982456140351</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04824561403508772</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03947368421052631</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1403508771929824</v>
+        <v>0.1422764227642276</v>
       </c>
       <c r="R6">
-        <v>0.09210526315789473</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="S6">
-        <v>0.3596491228070176</v>
+        <v>0.3699186991869919</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1116279069767442</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03720930232558139</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0186046511627907</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1534883720930233</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03720930232558139</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1302325581395349</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="R7">
-        <v>0.09767441860465116</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="S7">
-        <v>0.413953488372093</v>
+        <v>0.4096916299559472</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1100746268656716</v>
+        <v>0.1060869565217391</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01865671641791045</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="E8">
-        <v>0.001865671641791045</v>
+        <v>0.001739130434782609</v>
       </c>
       <c r="F8">
-        <v>0.08022388059701492</v>
+        <v>0.08347826086956522</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1138059701492537</v>
+        <v>0.12</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01119402985074627</v>
+        <v>0.01043478260869565</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1399253731343283</v>
+        <v>0.1408695652173913</v>
       </c>
       <c r="R8">
-        <v>0.09328358208955224</v>
+        <v>0.09043478260869565</v>
       </c>
       <c r="S8">
-        <v>0.4309701492537313</v>
+        <v>0.4295652173913043</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1588785046728972</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004672897196261682</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="E9">
-        <v>0.004672897196261682</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="F9">
-        <v>0.07009345794392523</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09813084112149532</v>
+        <v>0.09691629955947137</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01869158878504673</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1074766355140187</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="R9">
-        <v>0.09813084112149532</v>
+        <v>0.09691629955947137</v>
       </c>
       <c r="S9">
-        <v>0.4392523364485981</v>
+        <v>0.4449339207048458</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1266280752532561</v>
+        <v>0.1246594005449591</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02170767004341534</v>
+        <v>0.02247956403269755</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06222865412445731</v>
+        <v>0.06335149863760219</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1201157742402316</v>
+        <v>0.1192098092643052</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01447178002894356</v>
+        <v>0.01430517711171662</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1881331403762663</v>
+        <v>0.1900544959128065</v>
       </c>
       <c r="R10">
-        <v>0.08827785817655572</v>
+        <v>0.08583106267029973</v>
       </c>
       <c r="S10">
-        <v>0.3784370477568741</v>
+        <v>0.3801089918256131</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1194029850746269</v>
+        <v>0.1211267605633803</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1014925373134328</v>
+        <v>0.1098591549295775</v>
       </c>
       <c r="K11">
-        <v>0.1641791044776119</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.5830985915492958</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01492537313432836</v>
+        <v>0.01690140845070422</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7129186602870813</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1913875598086124</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="K12">
-        <v>0.01913875598086124</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="L12">
-        <v>0.04784688995215311</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02870813397129187</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7173913043478261</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2608695652173913</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02173913043478261</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03422053231939164</v>
+        <v>0.03284671532846715</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1673003802281369</v>
+        <v>0.1642335766423358</v>
       </c>
       <c r="I15">
-        <v>0.0532319391634981</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="J15">
-        <v>0.3155893536121673</v>
+        <v>0.3138686131386861</v>
       </c>
       <c r="K15">
-        <v>0.07224334600760456</v>
+        <v>0.07664233576642336</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007604562737642586</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06463878326996197</v>
+        <v>0.06204379562043796</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.285171102661597</v>
+        <v>0.2846715328467153</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01619433198380567</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1902834008097166</v>
+        <v>0.1961538461538462</v>
       </c>
       <c r="I16">
-        <v>0.06072874493927125</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="J16">
-        <v>0.4534412955465587</v>
+        <v>0.4538461538461538</v>
       </c>
       <c r="K16">
-        <v>0.09716599190283401</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01619433198380567</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08502024291497975</v>
+        <v>0.08461538461538462</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08097165991902834</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01213592233009709</v>
+        <v>0.01126126126126126</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1699029126213592</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="I17">
-        <v>0.1043689320388349</v>
+        <v>0.1036036036036036</v>
       </c>
       <c r="J17">
-        <v>0.4004854368932039</v>
+        <v>0.3963963963963964</v>
       </c>
       <c r="K17">
-        <v>0.1116504854368932</v>
+        <v>0.1103603603603604</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01456310679611651</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="N17">
-        <v>0.002427184466019417</v>
+        <v>0.002252252252252252</v>
       </c>
       <c r="O17">
-        <v>0.04854368932038835</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1359223300970874</v>
+        <v>0.1373873873873874</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008583690987124463</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.167381974248927</v>
+        <v>0.1618257261410788</v>
       </c>
       <c r="I18">
-        <v>0.09012875536480687</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="J18">
-        <v>0.3948497854077253</v>
+        <v>0.3900414937759336</v>
       </c>
       <c r="K18">
-        <v>0.09012875536480687</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.004291845493562232</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1072961373390558</v>
+        <v>0.1078838174273859</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1373390557939914</v>
+        <v>0.1410788381742739</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01468624833110814</v>
+        <v>0.0150564617314931</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2242990654205607</v>
+        <v>0.2277289836888331</v>
       </c>
       <c r="I19">
-        <v>0.08277703604806408</v>
+        <v>0.08218318695106649</v>
       </c>
       <c r="J19">
-        <v>0.335781041388518</v>
+        <v>0.3393977415307403</v>
       </c>
       <c r="K19">
-        <v>0.1108144192256342</v>
+        <v>0.109159347553325</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02336448598130841</v>
+        <v>0.02258469259723965</v>
       </c>
       <c r="N19">
-        <v>0.001335113484646195</v>
+        <v>0.001254705144291092</v>
       </c>
       <c r="O19">
-        <v>0.06809078771695594</v>
+        <v>0.06524466750313676</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1388518024032043</v>
+        <v>0.1373902132998745</v>
       </c>
     </row>
   </sheetData>
